--- a/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="174">
   <si>
     <t>Component</t>
   </si>
@@ -416,202 +416,223 @@
     <t>Columbia ADRC</t>
   </si>
   <si>
-    <t>Cervical Cancer</t>
+    <t>Cardiovascular Disease</t>
   </si>
   <si>
     <t>DiCAD</t>
   </si>
   <si>
-    <t>Colon Cancer</t>
+    <t>Cervical Cancer</t>
   </si>
   <si>
     <t>EFIGA</t>
   </si>
   <si>
-    <t>Control</t>
+    <t>Colon Cancer</t>
   </si>
   <si>
     <t>EHBS</t>
   </si>
   <si>
-    <t>corticobasal degeneration disorder</t>
+    <t>Control</t>
   </si>
   <si>
     <t>Emory_ADRC</t>
   </si>
   <si>
-    <t>CS-DS</t>
+    <t>corticobasal degeneration disorder</t>
   </si>
   <si>
     <t>FBS</t>
   </si>
   <si>
-    <t>dementia</t>
+    <t>CS-DS</t>
   </si>
   <si>
     <t>Framingham</t>
   </si>
   <si>
-    <t>dystonia</t>
+    <t>dementia</t>
   </si>
   <si>
     <t>HBCC</t>
   </si>
   <si>
-    <t>essential tremor</t>
+    <t>Dyslipidemia</t>
   </si>
   <si>
     <t>HBTRC</t>
   </si>
   <si>
-    <t>Fibrocystic Breast Disease</t>
+    <t>dystonia</t>
   </si>
   <si>
     <t>HPGP</t>
   </si>
   <si>
-    <t>frontotemporal dementia</t>
+    <t>essential tremor</t>
   </si>
   <si>
     <t>HUP</t>
   </si>
   <si>
-    <t>gliosis</t>
+    <t>Fibrocystic Breast Disease</t>
   </si>
   <si>
     <t>LBP</t>
   </si>
   <si>
-    <t>hypoxia</t>
+    <t>frontotemporal dementia</t>
   </si>
   <si>
     <t>MARS</t>
   </si>
   <si>
-    <t>Juvenile Myelomonocytic Leukemia</t>
+    <t>gliosis</t>
   </si>
   <si>
     <t>MARS-WI</t>
   </si>
   <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>Mayo Clinic ADRC (Mayo ADRC)</t>
+  </si>
+  <si>
+    <t>hypoxia</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Juvenile Myelomonocytic Leukemia</t>
+  </si>
+  <si>
+    <t>MCJ</t>
+  </si>
+  <si>
     <t>Leukemia</t>
   </si>
   <si>
-    <t>Mayo Clinic</t>
+    <t>MCR</t>
   </si>
   <si>
     <t>Lewy body disease</t>
   </si>
   <si>
-    <t>MC</t>
+    <t>MIND</t>
   </si>
   <si>
     <t>Lung Cancer</t>
   </si>
   <si>
-    <t>MCJ</t>
+    <t>MSBB</t>
   </si>
   <si>
     <t>Major Depressive Disorder</t>
   </si>
   <si>
-    <t>MCR</t>
+    <t>NYBB</t>
   </si>
   <si>
     <t>MCI-DS</t>
   </si>
   <si>
-    <t>MIND</t>
+    <t>Pitt ADRC</t>
+  </si>
+  <si>
+    <t>Metabolic Syndrome</t>
+  </si>
+  <si>
+    <t>POINTER</t>
   </si>
   <si>
     <t>mild cognitive impairment</t>
   </si>
   <si>
-    <t>MSBB</t>
+    <t>RADC</t>
   </si>
   <si>
     <t>multiple system atrophy</t>
   </si>
   <si>
-    <t>NYBB</t>
+    <t>ROSMAP</t>
   </si>
   <si>
     <t>Neurofibromatosis 1</t>
   </si>
   <si>
-    <t>Pitt ADRC</t>
+    <t>SMRI</t>
   </si>
   <si>
     <t>Neurofibromatosis 2</t>
   </si>
   <si>
-    <t>POINTER</t>
+    <t>Tulsa LIBR-1000</t>
   </si>
   <si>
     <t>no cognitive impairment</t>
   </si>
   <si>
-    <t>RADC</t>
+    <t>UFL</t>
   </si>
   <si>
     <t>Not Applicable</t>
   </si>
   <si>
-    <t>ROSMAP</t>
+    <t>UK Biobank</t>
   </si>
   <si>
     <t>obesity</t>
   </si>
   <si>
-    <t>SMRI</t>
+    <t>UPBB</t>
   </si>
   <si>
     <t>obsessive compulsive disorder</t>
   </si>
   <si>
-    <t>Tulsa LIBR-1000</t>
+    <t>UPenn</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>UW ADRC</t>
   </si>
   <si>
     <t>Ovary Cancer</t>
   </si>
   <si>
-    <t>UFL</t>
+    <t>WHICAP</t>
   </si>
   <si>
     <t>Pancreatic Cancer</t>
   </si>
   <si>
-    <t>UK Biobank</t>
-  </si>
-  <si>
     <t>Parkinson's disease</t>
-  </si>
-  <si>
-    <t>UPBB</t>
   </si>
   <si>
     <t>pathological aging</t>
   </si>
   <si>
-    <t>UPenn</t>
+    <t>Posterior Cortical Atrophy</t>
   </si>
   <si>
     <t>progressive supranuclear palsy</t>
   </si>
   <si>
-    <t>UW ADRC</t>
-  </si>
-  <si>
     <t>Prostate Cancer</t>
-  </si>
-  <si>
-    <t>WHICAP</t>
   </si>
   <si>
     <t>Schizophrenia</t>
   </si>
   <si>
     <t>Skin Cancer</t>
+  </si>
+  <si>
+    <t>Subjective Memory Concern</t>
   </si>
   <si>
     <t>Substance Related Disorder</t>
@@ -624,6 +645,9 @@
   </si>
   <si>
     <t>type 2 diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>vascular dementia</t>
@@ -28023,6 +28047,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
       <formula1>Sheet2!$C$2:$C$45</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="K2:K1000">
+      <formula1>Sheet2!$K$2:$K$60</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$6</formula1>
     </dataValidation>
@@ -28043,9 +28070,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
       <formula1>Sheet2!$D$2:$D$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="K2:K1000">
-      <formula1>Sheet2!$K$2:$K$52</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="T2:T1000">
       <formula1>Sheet2!$T$2:$T$6</formula1>
@@ -28674,6 +28698,46 @@
         <v>165</v>
       </c>
     </row>
+    <row r="53">
+      <c r="K53" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="K54" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="K55" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="K56" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="K57" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="K58" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="K59" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="K60" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="245">
   <si>
     <t>Component</t>
   </si>
@@ -262,7 +262,7 @@
     <t>ABN</t>
   </si>
   <si>
-    <t>ABC-DS</t>
+    <t>1Florida ADRC (1FL ADRC)</t>
   </si>
   <si>
     <t>ADNI</t>
@@ -307,7 +307,7 @@
     <t>ABR</t>
   </si>
   <si>
-    <t>ACT</t>
+    <t>ABC-DS</t>
   </si>
   <si>
     <t>Baker Heart &amp; Diabetes Institute</t>
@@ -349,6 +349,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>ACT</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
@@ -383,9 +386,6 @@
   </si>
   <si>
     <t>AIBS</t>
-  </si>
-  <si>
-    <t>ADRC</t>
   </si>
   <si>
     <t>Emory</t>
@@ -424,7 +424,7 @@
     <t>BannerSun</t>
   </si>
   <si>
-    <t>Banner</t>
+    <t>ADRC</t>
   </si>
   <si>
     <t>IADRC</t>
@@ -460,7 +460,7 @@
     <t>BEB_Miller</t>
   </si>
   <si>
-    <t>BEAM</t>
+    <t>Banner</t>
   </si>
   <si>
     <t>Knight ADRC</t>
@@ -487,7 +487,7 @@
     <t>Caltech</t>
   </si>
   <si>
-    <t>BEB-Miller</t>
+    <t>BEAM</t>
   </si>
   <si>
     <t>MC ADRC</t>
@@ -508,7 +508,7 @@
     <t>Clotomics_PAIKEA_MSSM</t>
   </si>
   <si>
-    <t>Biggs Institute Brain Bank</t>
+    <t>BEB-Miller</t>
   </si>
   <si>
     <t>MCBB</t>
@@ -529,7 +529,7 @@
     <t>DongLab</t>
   </si>
   <si>
-    <t>BLSA</t>
+    <t>Biggs Institute Brain Bank</t>
   </si>
   <si>
     <t>MCSA</t>
@@ -541,13 +541,13 @@
     <t>Einstein</t>
   </si>
   <si>
-    <t>CHDWB</t>
+    <t>BLSA</t>
   </si>
   <si>
     <t>Brain Cancer</t>
   </si>
   <si>
-    <t>CLINCOR</t>
+    <t>CHDWB</t>
   </si>
   <si>
     <t>Breast Cancer</t>
@@ -556,7 +556,7 @@
     <t>Geschwind</t>
   </si>
   <si>
-    <t>Columbia ADRC</t>
+    <t>CLINCOR</t>
   </si>
   <si>
     <t>Cardiovascular Disease</t>
@@ -565,7 +565,7 @@
     <t>HBSFRC</t>
   </si>
   <si>
-    <t>DiCAD</t>
+    <t>Columbia ADRC</t>
   </si>
   <si>
     <t>Cervical Cancer</t>
@@ -574,7 +574,7 @@
     <t>HBTRC</t>
   </si>
   <si>
-    <t>EFIGA</t>
+    <t>DiCAD</t>
   </si>
   <si>
     <t>Colon Cancer</t>
@@ -583,7 +583,7 @@
     <t>IU</t>
   </si>
   <si>
-    <t>EHBS</t>
+    <t>EFIGA</t>
   </si>
   <si>
     <t>Control</t>
@@ -592,7 +592,7 @@
     <t>JAX</t>
   </si>
   <si>
-    <t>Emory_ADRC</t>
+    <t>EHBS</t>
   </si>
   <si>
     <t>corticobasal degeneration disorder</t>
@@ -601,7 +601,7 @@
     <t>LIBD</t>
   </si>
   <si>
-    <t>FBS</t>
+    <t>Emory_ADRC</t>
   </si>
   <si>
     <t>CS-DS</t>
@@ -610,7 +610,7 @@
     <t>LivingBrainProject_MSSM</t>
   </si>
   <si>
-    <t>Framingham</t>
+    <t>FBS</t>
   </si>
   <si>
     <t>dementia</t>
@@ -619,7 +619,7 @@
     <t>Mayo Clinic</t>
   </si>
   <si>
-    <t>HBCC</t>
+    <t>Framingham</t>
   </si>
   <si>
     <t>Dyslipidemia</t>
@@ -628,13 +628,13 @@
     <t>MayoBrainBank</t>
   </si>
   <si>
+    <t>HBCC</t>
+  </si>
+  <si>
     <t>dystonia</t>
   </si>
   <si>
     <t>Michigan University</t>
-  </si>
-  <si>
-    <t>HPGP</t>
   </si>
   <si>
     <t>essential tremor</t>
@@ -643,7 +643,7 @@
     <t>MSSM</t>
   </si>
   <si>
-    <t>HUP</t>
+    <t>HPGP</t>
   </si>
   <si>
     <t>Fibrocystic Breast Disease</t>
@@ -652,7 +652,7 @@
     <t>NDRI</t>
   </si>
   <si>
-    <t>LBP</t>
+    <t>HUP</t>
   </si>
   <si>
     <t>frontotemporal dementia</t>
@@ -661,7 +661,7 @@
     <t>Newcastle</t>
   </si>
   <si>
-    <t>MARS</t>
+    <t>Indiana ADRC (IADRC)</t>
   </si>
   <si>
     <t>gliosis</t>
@@ -670,13 +670,10 @@
     <t>NICHD</t>
   </si>
   <si>
-    <t>MARS-WI</t>
-  </si>
-  <si>
     <t>NIMH-HBCC</t>
   </si>
   <si>
-    <t>Mayo Clinic ADRC (Mayo ADRC)</t>
+    <t>LBP</t>
   </si>
   <si>
     <t>hypoxia</t>
@@ -685,7 +682,7 @@
     <t>Novogenix</t>
   </si>
   <si>
-    <t>MC</t>
+    <t>MARS</t>
   </si>
   <si>
     <t>Juvenile Myelomonocytic Leukemia</t>
@@ -694,7 +691,7 @@
     <t>NYBB</t>
   </si>
   <si>
-    <t>MCJ</t>
+    <t>MARS-WI</t>
   </si>
   <si>
     <t>Leukemia</t>
@@ -703,7 +700,7 @@
     <t>Oxford</t>
   </si>
   <si>
-    <t>MCR</t>
+    <t>Mayo Clinic ADRC (Mayo ADRC)</t>
   </si>
   <si>
     <t>Lewy body disease</t>
@@ -712,7 +709,7 @@
     <t>Penn</t>
   </si>
   <si>
-    <t>MIND</t>
+    <t>Mayo Clinic Brain Bank (MCBB)</t>
   </si>
   <si>
     <t>Lung Cancer</t>
@@ -721,7 +718,7 @@
     <t>PGP</t>
   </si>
   <si>
-    <t>MSBB</t>
+    <t>Mayo Clinic Study of Aging (MCSA)</t>
   </si>
   <si>
     <t>Major Depressive Disorder</t>
@@ -730,13 +727,16 @@
     <t>Pitt</t>
   </si>
   <si>
+    <t>MC</t>
+  </si>
+  <si>
     <t>MCI-DS</t>
   </si>
   <si>
     <t>Pritzker</t>
   </si>
   <si>
-    <t>Pitt ADRC</t>
+    <t>MCJ</t>
   </si>
   <si>
     <t>Metabolic Syndrome</t>
@@ -745,7 +745,7 @@
     <t>Rush</t>
   </si>
   <si>
-    <t>POINTER</t>
+    <t>MCR</t>
   </si>
   <si>
     <t>mild cognitive impairment</t>
@@ -754,7 +754,7 @@
     <t>Sestan</t>
   </si>
   <si>
-    <t>RADC</t>
+    <t>Michigan ADRC (MADC)</t>
   </si>
   <si>
     <t>multiple system atrophy</t>
@@ -763,7 +763,7 @@
     <t>SMRI</t>
   </si>
   <si>
-    <t>ROSMAP</t>
+    <t>MIND</t>
   </si>
   <si>
     <t>Neurofibromatosis 1</t>
@@ -772,13 +772,13 @@
     <t>StemExpress</t>
   </si>
   <si>
+    <t>MSBB</t>
+  </si>
+  <si>
     <t>Neurofibromatosis 2</t>
   </si>
   <si>
     <t>TAA</t>
-  </si>
-  <si>
-    <t>Tulsa LIBR-1000</t>
   </si>
   <si>
     <t>no cognitive impairment</t>
@@ -787,7 +787,7 @@
     <t>UCI_TMF</t>
   </si>
   <si>
-    <t>UFL</t>
+    <t>Pitt ADRC</t>
   </si>
   <si>
     <t>Not Applicable</t>
@@ -796,7 +796,7 @@
     <t>UCSF</t>
   </si>
   <si>
-    <t>UK Biobank</t>
+    <t>POINTER</t>
   </si>
   <si>
     <t>obesity</t>
@@ -805,7 +805,7 @@
     <t>UM-BTB</t>
   </si>
   <si>
-    <t>UPBB</t>
+    <t>RADC</t>
   </si>
   <si>
     <t>obsessive compulsive disorder</t>
@@ -814,13 +814,10 @@
     <t>University of Florida</t>
   </si>
   <si>
-    <t>UPenn</t>
+    <t>ROSMAP</t>
   </si>
   <si>
     <t>University of Miami</t>
-  </si>
-  <si>
-    <t>UW ADRC</t>
   </si>
   <si>
     <t>Ovary Cancer</t>
@@ -829,7 +826,7 @@
     <t>UW-CDL</t>
   </si>
   <si>
-    <t>WHICAP</t>
+    <t>Tulsa LIBR-1000</t>
   </si>
   <si>
     <t>Pancreatic Cancer</t>
@@ -838,10 +835,16 @@
     <t>Vaccarino</t>
   </si>
   <si>
+    <t>UFL</t>
+  </si>
+  <si>
     <t>Parkinson's disease</t>
   </si>
   <si>
     <t>Washington University</t>
+  </si>
+  <si>
+    <t>UK Biobank</t>
   </si>
   <si>
     <t>pathological aging</t>
@@ -850,16 +853,28 @@
     <t>XCell Science</t>
   </si>
   <si>
+    <t>UPBB</t>
+  </si>
+  <si>
     <t>Posterior Cortical Atrophy</t>
   </si>
   <si>
     <t>Yale</t>
   </si>
   <si>
+    <t>UPenn</t>
+  </si>
+  <si>
     <t>progressive supranuclear palsy</t>
   </si>
   <si>
+    <t>UW ADRC</t>
+  </si>
+  <si>
     <t>Prostate Cancer</t>
+  </si>
+  <si>
+    <t>WHICAP</t>
   </si>
   <si>
     <t>Schizophrenia</t>
@@ -32316,6 +32331,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="R2:R1000">
       <formula1>Sheet2!$R$2:$R$6</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
+      <formula1>Sheet2!$D$2:$D$51</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
       <formula1>Sheet2!$H$2:$H$6</formula1>
     </dataValidation>
@@ -32333,9 +32351,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
       <formula1>Sheet2!$P$2:$P$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
-      <formula1>Sheet2!$D$2:$D$45</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -32547,43 +32562,43 @@
         <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" s="6" t="s">
         <v>58</v>
@@ -32591,10 +32606,10 @@
     </row>
     <row r="5">
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>73</v>
@@ -32884,18 +32899,18 @@
         <v>152</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>156</v>
@@ -32939,7 +32954,7 @@
         <v>166</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>25</v>
@@ -32947,76 +32962,76 @@
     </row>
     <row r="27">
       <c r="C27" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M27" s="6" t="s">
+    </row>
+    <row r="28">
+      <c r="C28" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="M28" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="M28" s="6" t="s">
+    </row>
+    <row r="29">
+      <c r="C29" s="6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="M29" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="M29" s="6" t="s">
+    </row>
+    <row r="30">
+      <c r="C30" s="6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="M30" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="M30" s="6" t="s">
+    </row>
+    <row r="31">
+      <c r="C31" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="M31" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="M31" s="6" t="s">
+    </row>
+    <row r="32">
+      <c r="C32" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="M32" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="M32" s="6" t="s">
+    </row>
+    <row r="33">
+      <c r="C33" s="6" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>187</v>
@@ -33071,18 +33086,18 @@
         <v>200</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39">
       <c r="C39" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>204</v>
@@ -33129,7 +33144,7 @@
         <v>215</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
@@ -33137,25 +33152,28 @@
         <v>216</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M44" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M44" s="6" t="s">
+    </row>
+    <row r="45">
+      <c r="C45" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="M45" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="M45" s="6" t="s">
+    </row>
+    <row r="46">
+      <c r="C46" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>222</v>
       </c>
       <c r="M46" s="6" t="s">
@@ -33166,64 +33184,79 @@
       <c r="C47" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="M47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>225</v>
       </c>
+      <c r="M47" s="6" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="48">
       <c r="C48" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49">
       <c r="C49" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50">
+      <c r="D50" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="M50" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51">
+      <c r="D51" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="M51" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52">
       <c r="M52" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53">
       <c r="M53" s="6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54">
       <c r="M54" s="6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55">
       <c r="M55" s="6" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56">
       <c r="M56" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57">
       <c r="M57" s="6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58">
@@ -33233,12 +33266,12 @@
     </row>
     <row r="59">
       <c r="M59" s="6" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60">
       <c r="M60" s="6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
@@ -700,7 +700,7 @@
     <t>Oxford</t>
   </si>
   <si>
-    <t>Mayo Clinic ADRC (Mayo ADRC)</t>
+    <t>Mayo Clinic ADRC (Mayo ADRc)</t>
   </si>
   <si>
     <t>Lewy body disease</t>

--- a/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="247">
   <si>
     <t>Component</t>
   </si>
@@ -265,7 +265,7 @@
     <t>1Florida ADRC (1FL ADRC)</t>
   </si>
   <si>
-    <t>ADNI</t>
+    <t>1FL ADRC</t>
   </si>
   <si>
     <t>Drosophila melanogaster</t>
@@ -310,7 +310,7 @@
     <t>ABC-DS</t>
   </si>
   <si>
-    <t>Baker Heart &amp; Diabetes Institute</t>
+    <t>ADNI</t>
   </si>
   <si>
     <t>Gallus gallus</t>
@@ -352,7 +352,7 @@
     <t>ACT</t>
   </si>
   <si>
-    <t>Duke</t>
+    <t>Baker Heart &amp; Diabetes Institute</t>
   </si>
   <si>
     <t>Human</t>
@@ -388,7 +388,7 @@
     <t>AIBS</t>
   </si>
   <si>
-    <t>Emory</t>
+    <t>Duke</t>
   </si>
   <si>
     <t>Mouse</t>
@@ -427,7 +427,7 @@
     <t>ADRC</t>
   </si>
   <si>
-    <t>IADRC</t>
+    <t>Emory</t>
   </si>
   <si>
     <t>Pan troglodytes</t>
@@ -463,7 +463,7 @@
     <t>Banner</t>
   </si>
   <si>
-    <t>Knight ADRC</t>
+    <t>IADRC</t>
   </si>
   <si>
     <t>Rat</t>
@@ -490,7 +490,7 @@
     <t>BEAM</t>
   </si>
   <si>
-    <t>MC ADRC</t>
+    <t>Knight ADRC</t>
   </si>
   <si>
     <t>Rhesus macaque</t>
@@ -511,7 +511,7 @@
     <t>BEB-Miller</t>
   </si>
   <si>
-    <t>MCBB</t>
+    <t>MADC</t>
   </si>
   <si>
     <t>Sus scrofa</t>
@@ -532,7 +532,7 @@
     <t>Biggs Institute Brain Bank</t>
   </si>
   <si>
-    <t>MCSA</t>
+    <t>MC ADRC</t>
   </si>
   <si>
     <t>Bladder Cancer</t>
@@ -544,10 +544,16 @@
     <t>BLSA</t>
   </si>
   <si>
+    <t>MCBB</t>
+  </si>
+  <si>
     <t>Brain Cancer</t>
   </si>
   <si>
     <t>CHDWB</t>
+  </si>
+  <si>
+    <t>MCSA</t>
   </si>
   <si>
     <t>Breast Cancer</t>
@@ -32337,9 +32343,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
       <formula1>Sheet2!$H$2:$H$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
-      <formula1>Sheet2!$E$2:$E$10</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="K2:K1000">
       <formula1>Sheet2!$K$2:$K$7</formula1>
     </dataValidation>
@@ -32351,6 +32354,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
       <formula1>Sheet2!$P$2:$P$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
+      <formula1>Sheet2!$E$2:$E$12</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -32559,7 +32565,7 @@
     </row>
     <row r="4">
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>60</v>
@@ -32609,7 +32615,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>73</v>
@@ -32791,170 +32797,176 @@
       <c r="D11" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>125</v>
       </c>
+      <c r="M11" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="12">
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M15" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="M22" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>25</v>
@@ -32962,186 +32974,186 @@
     </row>
     <row r="27">
       <c r="C27" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="M39" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42">
       <c r="C42" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M43" s="6" t="s">
         <v>71</v>
@@ -33149,114 +33161,114 @@
     </row>
     <row r="44">
       <c r="C44" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46">
       <c r="C46" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47">
       <c r="C47" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48">
       <c r="C48" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49">
       <c r="C49" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50">
       <c r="D50" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51">
       <c r="D51" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52">
       <c r="M52" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53">
       <c r="M53" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54">
       <c r="M54" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55">
       <c r="M55" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56">
       <c r="M56" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57">
       <c r="M57" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58">
@@ -33266,12 +33278,12 @@
     </row>
     <row r="59">
       <c r="M59" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60">
       <c r="M60" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
@@ -59,7 +59,7 @@
     </comment>
     <comment authorId="0" ref="I1">
       <text>
-        <t xml:space="preserve">Ethnicity of the donor. For CLEAR AD use either Hispanic/Latino or African American</t>
+        <t xml:space="preserve">Ethnicity of the individual or donor</t>
       </text>
     </comment>
     <comment authorId="0" ref="J1">
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="253">
   <si>
     <t>Component</t>
   </si>
@@ -277,6 +277,9 @@
     <t>American Indian or Alaska Native</t>
   </si>
   <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
@@ -322,6 +325,9 @@
     <t>Asian</t>
   </si>
   <si>
+    <t>not applicable</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
@@ -361,6 +367,9 @@
     <t>Black or African American</t>
   </si>
   <si>
+    <t>Not collected</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -395,6 +404,9 @@
   </si>
   <si>
     <t>Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino</t>
   </si>
   <si>
     <t>33</t>
@@ -467,6 +479,9 @@
   </si>
   <si>
     <t>Rat</t>
+  </si>
+  <si>
+    <t>Preferred not to answer</t>
   </si>
   <si>
     <t>44</t>
@@ -655,7 +670,7 @@
     <t>Fibrocystic Breast Disease</t>
   </si>
   <si>
-    <t>NDRI</t>
+    <t>NACC</t>
   </si>
   <si>
     <t>HUP</t>
@@ -664,7 +679,7 @@
     <t>frontotemporal dementia</t>
   </si>
   <si>
-    <t>Newcastle</t>
+    <t>NDRI</t>
   </si>
   <si>
     <t>Indiana ADRC (IADRC)</t>
@@ -673,10 +688,10 @@
     <t>gliosis</t>
   </si>
   <si>
-    <t>NICHD</t>
+    <t>Newcastle</t>
   </si>
   <si>
-    <t>NIMH-HBCC</t>
+    <t>NICHD</t>
   </si>
   <si>
     <t>LBP</t>
@@ -685,7 +700,7 @@
     <t>hypoxia</t>
   </si>
   <si>
-    <t>Novogenix</t>
+    <t>NIMH-HBCC</t>
   </si>
   <si>
     <t>MARS</t>
@@ -694,7 +709,7 @@
     <t>Juvenile Myelomonocytic Leukemia</t>
   </si>
   <si>
-    <t>NYBB</t>
+    <t>Novogenix</t>
   </si>
   <si>
     <t>MARS-WI</t>
@@ -703,7 +718,7 @@
     <t>Leukemia</t>
   </si>
   <si>
-    <t>Oxford</t>
+    <t>NYBB</t>
   </si>
   <si>
     <t>Mayo Clinic ADRC (Mayo ADRc)</t>
@@ -712,7 +727,7 @@
     <t>Lewy body disease</t>
   </si>
   <si>
-    <t>Penn</t>
+    <t>Oxford</t>
   </si>
   <si>
     <t>Mayo Clinic Brain Bank (MCBB)</t>
@@ -721,7 +736,7 @@
     <t>Lung Cancer</t>
   </si>
   <si>
-    <t>PGP</t>
+    <t>Penn</t>
   </si>
   <si>
     <t>Mayo Clinic Study of Aging (MCSA)</t>
@@ -730,7 +745,7 @@
     <t>Major Depressive Disorder</t>
   </si>
   <si>
-    <t>Pitt</t>
+    <t>PGP</t>
   </si>
   <si>
     <t>MC</t>
@@ -739,7 +754,7 @@
     <t>MCI-DS</t>
   </si>
   <si>
-    <t>Pritzker</t>
+    <t>Pitt</t>
   </si>
   <si>
     <t>MCJ</t>
@@ -748,7 +763,7 @@
     <t>Metabolic Syndrome</t>
   </si>
   <si>
-    <t>Rush</t>
+    <t>Pritzker</t>
   </si>
   <si>
     <t>MCR</t>
@@ -757,7 +772,7 @@
     <t>mild cognitive impairment</t>
   </si>
   <si>
-    <t>Sestan</t>
+    <t>Rush</t>
   </si>
   <si>
     <t>Michigan ADRC (MADC)</t>
@@ -766,7 +781,7 @@
     <t>multiple system atrophy</t>
   </si>
   <si>
-    <t>SMRI</t>
+    <t>Sestan</t>
   </si>
   <si>
     <t>MIND</t>
@@ -775,7 +790,7 @@
     <t>Neurofibromatosis 1</t>
   </si>
   <si>
-    <t>StemExpress</t>
+    <t>SMRI</t>
   </si>
   <si>
     <t>MSBB</t>
@@ -784,13 +799,13 @@
     <t>Neurofibromatosis 2</t>
   </si>
   <si>
-    <t>TAA</t>
+    <t>StemExpress</t>
   </si>
   <si>
     <t>no cognitive impairment</t>
   </si>
   <si>
-    <t>UCI_TMF</t>
+    <t>TAA</t>
   </si>
   <si>
     <t>Pitt ADRC</t>
@@ -799,7 +814,7 @@
     <t>Not Applicable</t>
   </si>
   <si>
-    <t>UCSF</t>
+    <t>UCI_TMF</t>
   </si>
   <si>
     <t>POINTER</t>
@@ -808,7 +823,7 @@
     <t>obesity</t>
   </si>
   <si>
-    <t>UM-BTB</t>
+    <t>UCSF</t>
   </si>
   <si>
     <t>RADC</t>
@@ -817,19 +832,19 @@
     <t>obsessive compulsive disorder</t>
   </si>
   <si>
-    <t>University of Florida</t>
+    <t>UM-BTB</t>
   </si>
   <si>
     <t>ROSMAP</t>
   </si>
   <si>
-    <t>University of Miami</t>
+    <t>University of Florida</t>
   </si>
   <si>
     <t>Ovary Cancer</t>
   </si>
   <si>
-    <t>UW-CDL</t>
+    <t>University of Miami</t>
   </si>
   <si>
     <t>Tulsa LIBR-1000</t>
@@ -838,7 +853,7 @@
     <t>Pancreatic Cancer</t>
   </si>
   <si>
-    <t>Vaccarino</t>
+    <t>UW-CDL</t>
   </si>
   <si>
     <t>UFL</t>
@@ -847,7 +862,7 @@
     <t>Parkinson's disease</t>
   </si>
   <si>
-    <t>Washington University</t>
+    <t>Vaccarino</t>
   </si>
   <si>
     <t>UK Biobank</t>
@@ -856,7 +871,7 @@
     <t>pathological aging</t>
   </si>
   <si>
-    <t>XCell Science</t>
+    <t>Washington University</t>
   </si>
   <si>
     <t>UPBB</t>
@@ -865,13 +880,16 @@
     <t>Posterior Cortical Atrophy</t>
   </si>
   <si>
-    <t>Yale</t>
+    <t>XCell Science</t>
   </si>
   <si>
     <t>UPenn</t>
   </si>
   <si>
     <t>progressive supranuclear palsy</t>
+  </si>
+  <si>
+    <t>Yale</t>
   </si>
   <si>
     <t>UW ADRC</t>
@@ -32313,9 +32331,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="U2:U1000">
       <formula1>Sheet2!$U$2:$U$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
-      <formula1>Sheet2!$C$2:$C$49</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="V2:V1000">
       <formula1>Sheet2!$V$2:$V$6</formula1>
     </dataValidation>
@@ -32349,6 +32364,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="Z2:Z1000">
       <formula1>Sheet2!$Z$2:$Z$8</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
+      <formula1>Sheet2!$C$2:$C$50</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$9</formula1>
     </dataValidation>
@@ -32357,6 +32375,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
       <formula1>Sheet2!$E$2:$E$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$8</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -32482,491 +32503,512 @@
       <c r="H2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="Y2" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="Z2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>49</v>
+      <c r="D4" s="6" t="s">
+        <v>62</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>50</v>
+      <c r="E4" s="6" t="s">
+        <v>63</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>51</v>
+      <c r="F4" s="6" t="s">
+        <v>64</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>52</v>
+      <c r="G4" s="6" t="s">
+        <v>38</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>53</v>
+      <c r="H4" s="6" t="s">
+        <v>65</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>54</v>
+      <c r="I4" s="6" t="s">
+        <v>66</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>55</v>
+      <c r="K4" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>56</v>
+      <c r="L4" s="6" t="s">
+        <v>68</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>57</v>
+      <c r="M4" s="6" t="s">
+        <v>69</v>
       </c>
-      <c r="V3" s="6" t="s">
-        <v>37</v>
+      <c r="P4" s="6" t="s">
+        <v>70</v>
       </c>
-      <c r="Y3" s="6" t="s">
-        <v>58</v>
+      <c r="R4" s="6" t="s">
+        <v>71</v>
       </c>
-      <c r="Z3" s="6" t="s">
-        <v>59</v>
+      <c r="U4" s="6" t="s">
+        <v>72</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="6" t="s">
-        <v>47</v>
+      <c r="V4" s="6" t="s">
+        <v>73</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="5">
       <c r="C5" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>75</v>
+      <c r="K6" s="7" t="s">
+        <v>93</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>76</v>
+      <c r="M6" s="6" t="s">
+        <v>94</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>77</v>
+      <c r="P6" s="6" t="s">
+        <v>95</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>78</v>
+      <c r="R6" s="6" t="s">
+        <v>96</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>79</v>
+      <c r="U6" s="6" t="s">
+        <v>97</v>
       </c>
-      <c r="U5" s="6" t="s">
-        <v>80</v>
+      <c r="V6" s="6" t="s">
+        <v>98</v>
       </c>
-      <c r="V5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="Y6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>88</v>
+      <c r="Z6" s="6" t="s">
+        <v>99</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>89</v>
+    </row>
+    <row r="7">
+      <c r="C7" s="6" t="s">
+        <v>100</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="D7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M16" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="M22" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>25</v>
@@ -32974,316 +33016,319 @@
     </row>
     <row r="27">
       <c r="C27" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" s="6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" s="6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M31" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="M39" s="6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="M44" s="6" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" s="6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46">
       <c r="C46" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47">
       <c r="C47" s="6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48">
       <c r="C48" s="6" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49">
       <c r="C49" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50">
+      <c r="C50" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="D50" s="6" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51">
       <c r="D51" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52">
       <c r="M52" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53">
       <c r="M53" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54">
       <c r="M54" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55">
       <c r="M55" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56">
       <c r="M56" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57">
       <c r="M57" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58">
       <c r="M58" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59">
       <c r="M59" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60">
       <c r="M60" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="261">
   <si>
     <t>Component</t>
   </si>
@@ -286,7 +286,7 @@
     <t>missing or unknown</t>
   </si>
   <si>
-    <t>AD-DS</t>
+    <t>AD with vascular component</t>
   </si>
   <si>
     <t>days</t>
@@ -334,7 +334,7 @@
     <t>no E4</t>
   </si>
   <si>
-    <t>Affective Disorder</t>
+    <t>AD-DS</t>
   </si>
   <si>
     <t>gestational weeks</t>
@@ -376,7 +376,7 @@
     <t>one or two E4</t>
   </si>
   <si>
-    <t>Alzheimer Disease</t>
+    <t>Affective Disorder</t>
   </si>
   <si>
     <t>months</t>
@@ -412,7 +412,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>Alzheimer disease with psychosis</t>
+    <t>Alzheimer Disease</t>
   </si>
   <si>
     <t>PCW</t>
@@ -451,7 +451,7 @@
     <t>34</t>
   </si>
   <si>
-    <t>amyotrophic lateral sclerosis</t>
+    <t>Alzheimer disease with psychosis</t>
   </si>
   <si>
     <t>weeks</t>
@@ -487,7 +487,7 @@
     <t>44</t>
   </si>
   <si>
-    <t>anxiety</t>
+    <t>amyotrophic lateral sclerosis</t>
   </si>
   <si>
     <t>years</t>
@@ -511,7 +511,7 @@
     <t>Rhesus macaque</t>
   </si>
   <si>
-    <t>Autism Spectrum Disorder</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>type 1</t>
@@ -532,7 +532,7 @@
     <t>Sus scrofa</t>
   </si>
   <si>
-    <t>Bipolar Disorder</t>
+    <t>Atypical AD Logopenic progressive Aphasia</t>
   </si>
   <si>
     <t>No BRAAK stage</t>
@@ -550,7 +550,7 @@
     <t>MC ADRC</t>
   </si>
   <si>
-    <t>Bladder Cancer</t>
+    <t>Autism Spectrum Disorder</t>
   </si>
   <si>
     <t>Einstein</t>
@@ -562,7 +562,7 @@
     <t>MCBB</t>
   </si>
   <si>
-    <t>Brain Cancer</t>
+    <t>Bipolar Disorder</t>
   </si>
   <si>
     <t>CHDWB</t>
@@ -571,7 +571,7 @@
     <t>MCSA</t>
   </si>
   <si>
-    <t>Breast Cancer</t>
+    <t>Bladder Cancer</t>
   </si>
   <si>
     <t>Geschwind</t>
@@ -580,7 +580,7 @@
     <t>CLINCOR</t>
   </si>
   <si>
-    <t>Cardiovascular Disease</t>
+    <t>Brain Cancer</t>
   </si>
   <si>
     <t>HBSFRC</t>
@@ -589,7 +589,7 @@
     <t>Columbia ADRC</t>
   </si>
   <si>
-    <t>Cervical Cancer</t>
+    <t>Breast Cancer</t>
   </si>
   <si>
     <t>HBTRC</t>
@@ -598,7 +598,7 @@
     <t>DiCAD</t>
   </si>
   <si>
-    <t>Colon Cancer</t>
+    <t>Cardiovascular Disease</t>
   </si>
   <si>
     <t>IU</t>
@@ -607,7 +607,7 @@
     <t>EFIGA</t>
   </si>
   <si>
-    <t>Control</t>
+    <t>Cervical Cancer</t>
   </si>
   <si>
     <t>JAX</t>
@@ -616,7 +616,7 @@
     <t>EHBS</t>
   </si>
   <si>
-    <t>corticobasal degeneration disorder</t>
+    <t>Colon Cancer</t>
   </si>
   <si>
     <t>LIBD</t>
@@ -625,7 +625,7 @@
     <t>Emory_ADRC</t>
   </si>
   <si>
-    <t>CS-DS</t>
+    <t>Control</t>
   </si>
   <si>
     <t>LivingBrainProject_MSSM</t>
@@ -634,7 +634,7 @@
     <t>FBS</t>
   </si>
   <si>
-    <t>dementia</t>
+    <t>corticobasal degeneration disorder</t>
   </si>
   <si>
     <t>Mayo Clinic</t>
@@ -643,7 +643,7 @@
     <t>Framingham</t>
   </si>
   <si>
-    <t>Dyslipidemia</t>
+    <t>CS-DS</t>
   </si>
   <si>
     <t>MayoBrainBank</t>
@@ -652,13 +652,13 @@
     <t>HBCC</t>
   </si>
   <si>
-    <t>dystonia</t>
+    <t>dementia</t>
   </si>
   <si>
     <t>Michigan University</t>
   </si>
   <si>
-    <t>essential tremor</t>
+    <t>Dyslipidemia</t>
   </si>
   <si>
     <t>MSSM</t>
@@ -667,7 +667,7 @@
     <t>HPGP</t>
   </si>
   <si>
-    <t>Fibrocystic Breast Disease</t>
+    <t>dystonia</t>
   </si>
   <si>
     <t>NACC</t>
@@ -676,7 +676,7 @@
     <t>HUP</t>
   </si>
   <si>
-    <t>frontotemporal dementia</t>
+    <t>Early Mild Cognitive Impairment</t>
   </si>
   <si>
     <t>NDRI</t>
@@ -685,10 +685,13 @@
     <t>Indiana ADRC (IADRC)</t>
   </si>
   <si>
-    <t>gliosis</t>
+    <t>Early Onset AD</t>
   </si>
   <si>
     <t>Newcastle</t>
+  </si>
+  <si>
+    <t>essential tremor</t>
   </si>
   <si>
     <t>NICHD</t>
@@ -697,7 +700,7 @@
     <t>LBP</t>
   </si>
   <si>
-    <t>hypoxia</t>
+    <t>Fibrocystic Breast Disease</t>
   </si>
   <si>
     <t>NIMH-HBCC</t>
@@ -706,7 +709,7 @@
     <t>MARS</t>
   </si>
   <si>
-    <t>Juvenile Myelomonocytic Leukemia</t>
+    <t>frontotemporal dementia</t>
   </si>
   <si>
     <t>Novogenix</t>
@@ -715,7 +718,7 @@
     <t>MARS-WI</t>
   </si>
   <si>
-    <t>Leukemia</t>
+    <t>gliosis</t>
   </si>
   <si>
     <t>NYBB</t>
@@ -724,16 +727,13 @@
     <t>Mayo Clinic ADRC (Mayo ADRc)</t>
   </si>
   <si>
-    <t>Lewy body disease</t>
-  </si>
-  <si>
     <t>Oxford</t>
   </si>
   <si>
     <t>Mayo Clinic Brain Bank (MCBB)</t>
   </si>
   <si>
-    <t>Lung Cancer</t>
+    <t>hypoxia</t>
   </si>
   <si>
     <t>Penn</t>
@@ -742,7 +742,7 @@
     <t>Mayo Clinic Study of Aging (MCSA)</t>
   </si>
   <si>
-    <t>Major Depressive Disorder</t>
+    <t>Juvenile Myelomonocytic Leukemia</t>
   </si>
   <si>
     <t>PGP</t>
@@ -751,7 +751,7 @@
     <t>MC</t>
   </si>
   <si>
-    <t>MCI-DS</t>
+    <t>Late Mild Cognitive Impairment</t>
   </si>
   <si>
     <t>Pitt</t>
@@ -760,7 +760,7 @@
     <t>MCJ</t>
   </si>
   <si>
-    <t>Metabolic Syndrome</t>
+    <t>Leukemia</t>
   </si>
   <si>
     <t>Pritzker</t>
@@ -769,7 +769,7 @@
     <t>MCR</t>
   </si>
   <si>
-    <t>mild cognitive impairment</t>
+    <t>Lewy body disease</t>
   </si>
   <si>
     <t>Rush</t>
@@ -778,7 +778,7 @@
     <t>Michigan ADRC (MADC)</t>
   </si>
   <si>
-    <t>multiple system atrophy</t>
+    <t>Lung Cancer</t>
   </si>
   <si>
     <t>Sestan</t>
@@ -787,7 +787,7 @@
     <t>MIND</t>
   </si>
   <si>
-    <t>Neurofibromatosis 1</t>
+    <t>Major Depressive Disorder</t>
   </si>
   <si>
     <t>SMRI</t>
@@ -796,13 +796,13 @@
     <t>MSBB</t>
   </si>
   <si>
-    <t>Neurofibromatosis 2</t>
+    <t>MCI-DS</t>
   </si>
   <si>
     <t>StemExpress</t>
   </si>
   <si>
-    <t>no cognitive impairment</t>
+    <t>Metabolic Syndrome</t>
   </si>
   <si>
     <t>TAA</t>
@@ -811,7 +811,7 @@
     <t>Pitt ADRC</t>
   </si>
   <si>
-    <t>Not Applicable</t>
+    <t>mild cognitive impairment</t>
   </si>
   <si>
     <t>UCI_TMF</t>
@@ -820,7 +820,7 @@
     <t>POINTER</t>
   </si>
   <si>
-    <t>obesity</t>
+    <t>multiple system atrophy</t>
   </si>
   <si>
     <t>UCSF</t>
@@ -829,7 +829,7 @@
     <t>RADC</t>
   </si>
   <si>
-    <t>obsessive compulsive disorder</t>
+    <t>Neurofibromatosis 1</t>
   </si>
   <si>
     <t>UM-BTB</t>
@@ -838,10 +838,13 @@
     <t>ROSMAP</t>
   </si>
   <si>
+    <t>Neurofibromatosis 2</t>
+  </si>
+  <si>
     <t>University of Florida</t>
   </si>
   <si>
-    <t>Ovary Cancer</t>
+    <t>no cognitive impairment</t>
   </si>
   <si>
     <t>University of Miami</t>
@@ -850,7 +853,7 @@
     <t>Tulsa LIBR-1000</t>
   </si>
   <si>
-    <t>Pancreatic Cancer</t>
+    <t>Not Applicable</t>
   </si>
   <si>
     <t>UW-CDL</t>
@@ -859,7 +862,7 @@
     <t>UFL</t>
   </si>
   <si>
-    <t>Parkinson's disease</t>
+    <t>obesity</t>
   </si>
   <si>
     <t>Vaccarino</t>
@@ -868,7 +871,7 @@
     <t>UK Biobank</t>
   </si>
   <si>
-    <t>pathological aging</t>
+    <t>obsessive compulsive disorder</t>
   </si>
   <si>
     <t>Washington University</t>
@@ -877,16 +880,13 @@
     <t>UPBB</t>
   </si>
   <si>
-    <t>Posterior Cortical Atrophy</t>
-  </si>
-  <si>
     <t>XCell Science</t>
   </si>
   <si>
     <t>UPenn</t>
   </si>
   <si>
-    <t>progressive supranuclear palsy</t>
+    <t>Ovary Cancer</t>
   </si>
   <si>
     <t>Yale</t>
@@ -895,16 +895,40 @@
     <t>UW ADRC</t>
   </si>
   <si>
-    <t>Prostate Cancer</t>
+    <t>Pancreatic Cancer</t>
   </si>
   <si>
     <t>WHICAP</t>
+  </si>
+  <si>
+    <t>Parkinson's disease</t>
+  </si>
+  <si>
+    <t>pathological aging</t>
+  </si>
+  <si>
+    <t>Possible AD</t>
+  </si>
+  <si>
+    <t>Posterior Cortical Atrophy</t>
+  </si>
+  <si>
+    <t>Probable AD</t>
+  </si>
+  <si>
+    <t>progressive supranuclear palsy</t>
+  </si>
+  <si>
+    <t>Prostate Cancer</t>
   </si>
   <si>
     <t>Schizophrenia</t>
   </si>
   <si>
     <t>Skin Cancer</t>
+  </si>
+  <si>
+    <t>Subjective Memory Complaints</t>
   </si>
   <si>
     <t>Subjective Memory Concern</t>
@@ -32337,11 +32361,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="T2:T1000">
       <formula1>Sheet2!$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="M2:M1000">
-      <formula1>Sheet2!$M$2:$M$60</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="Y2:Y1000">
       <formula1>Sheet2!$Y$2:$Y$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="M2:M1000">
+      <formula1>Sheet2!$M$2:$M$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="G2:G1000">
       <formula1>Sheet2!$G$2:$G$4</formula1>
@@ -33011,51 +33035,51 @@
         <v>112</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -33151,7 +33175,7 @@
         <v>210</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>211</v>
@@ -33198,62 +33222,62 @@
         <v>222</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44">
       <c r="C44" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>207</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46">
       <c r="C46" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47">
       <c r="C47" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48">
       <c r="C48" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
@@ -33318,17 +33342,57 @@
     </row>
     <row r="58">
       <c r="M58" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="M59" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="M60" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="M61" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="M62" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="M63" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="M64" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="M65" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="M66" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59">
-      <c r="M59" s="6" t="s">
-        <v>251</v>
+    <row r="67">
+      <c r="M67" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="60">
-      <c r="M60" s="6" t="s">
-        <v>252</v>
+    <row r="68">
+      <c r="M68" s="6" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualHumanMetadataTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -1053,6 +1053,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
